--- a/JKMapp/static/counter_info.xlsx
+++ b/JKMapp/static/counter_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:D4"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,12 +421,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="E1" t="n">
+        <v>52</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="n">
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -435,16 +440,16 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14:11:46</t>
+          <t>18:06:36</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -453,25 +458,169 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14:11:48</t>
+          <t>18:06:39</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18:08:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>18:08:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>06-03-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18:12:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16:41:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16:45:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16:49:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16:49:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
         <v>1</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>06-03-2024</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14:12:17</t>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19:04:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>07-03-2024</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>19:33:01</t>
         </is>
       </c>
     </row>

--- a/JKMapp/static/counter_info.xlsx
+++ b/JKMapp/static/counter_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <sheetData>
     <row r="1">
       <c r="E1" t="n">
-        <v>52</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2">
@@ -621,6 +621,168 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>19:33:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14:42:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15:01:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>15:04:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>15:31:59</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>6</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15:32:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15:32:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15:33:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15:33:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>15:33:54</t>
         </is>
       </c>
     </row>

--- a/JKMapp/static/counter_info.xlsx
+++ b/JKMapp/static/counter_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <sheetData>
     <row r="1">
       <c r="E1" t="n">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
@@ -783,6 +783,96 @@
       <c r="D21" t="inlineStr">
         <is>
           <t>15:33:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15:36:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>15:36:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15:39:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15:44:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>08-03-2024</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15:45:21</t>
         </is>
       </c>
     </row>

--- a/JKMapp/static/counter_info.xlsx
+++ b/JKMapp/static/counter_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <sheetData>
     <row r="1">
       <c r="E1" t="n">
-        <v>94</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
@@ -435,12 +435,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>18:06:36</t>
+          <t>20:46:46</t>
         </is>
       </c>
     </row>
@@ -453,12 +453,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>18:06:39</t>
+          <t>20:47:26</t>
         </is>
       </c>
     </row>
@@ -467,16 +467,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18:08:49</t>
+          <t>20:48:46</t>
         </is>
       </c>
     </row>
@@ -485,16 +485,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18:08:54</t>
+          <t>21:10:26</t>
         </is>
       </c>
     </row>
@@ -503,16 +503,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>06-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18:12:57</t>
+          <t>21:10:44</t>
         </is>
       </c>
     </row>
@@ -521,16 +521,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16:41:45</t>
+          <t>21:11:10</t>
         </is>
       </c>
     </row>
@@ -539,16 +539,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>16:45:33</t>
+          <t>21:12:02</t>
         </is>
       </c>
     </row>
@@ -557,16 +557,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16:49:04</t>
+          <t>21:15:55</t>
         </is>
       </c>
     </row>
@@ -575,16 +575,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16:49:48</t>
+          <t>21:16:23</t>
         </is>
       </c>
     </row>
@@ -593,16 +593,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>19:04:33</t>
+          <t>21:16:51</t>
         </is>
       </c>
     </row>
@@ -611,16 +611,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>07-03-2024</t>
+          <t>08-03-2024</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>19:33:01</t>
+          <t>21:17:34</t>
         </is>
       </c>
     </row>
@@ -629,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>14:42:57</t>
+          <t>21:18:25</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15:01:32</t>
+          <t>21:20:14</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -674,7 +674,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>15:04:24</t>
+          <t>21:20:53</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>15:31:59</t>
+          <t>21:58:02</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>15:32:08</t>
+          <t>21:59:28</t>
         </is>
       </c>
     </row>
@@ -719,16 +719,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>09-03-2024</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>15:32:56</t>
+          <t>14:14:15</t>
         </is>
       </c>
     </row>
@@ -737,16 +737,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>09-03-2024</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>15:33:08</t>
+          <t>19:08:56</t>
         </is>
       </c>
     </row>
@@ -759,12 +759,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>09-03-2024</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>15:33:20</t>
+          <t>19:09:41</t>
         </is>
       </c>
     </row>
@@ -773,16 +773,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>09-03-2024</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15:33:54</t>
+          <t>19:12:09</t>
         </is>
       </c>
     </row>
@@ -791,16 +791,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>09-03-2024</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>15:36:25</t>
+          <t>19:13:20</t>
         </is>
       </c>
     </row>
@@ -809,16 +809,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>09-03-2024</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>15:36:28</t>
+          <t>19:14:57</t>
         </is>
       </c>
     </row>
@@ -827,16 +827,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>09-03-2024</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>15:39:49</t>
+          <t>19:15:45</t>
         </is>
       </c>
     </row>
@@ -845,16 +845,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>09-03-2024</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>15:44:06</t>
+          <t>19:17:59</t>
         </is>
       </c>
     </row>
@@ -863,16 +863,124 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>08-03-2024</t>
+          <t>09-03-2024</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>15:45:21</t>
+          <t>19:18:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>09-03-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19:19:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>09-03-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19:20:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>09-03-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>19:22:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>09-03-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19:22:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>09-03-2024</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>19:22:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>09-03-2024</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>19:30:08</t>
         </is>
       </c>
     </row>

--- a/JKMapp/static/counter_info.xlsx
+++ b/JKMapp/static/counter_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <sheetData>
     <row r="1">
       <c r="E1" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2">
@@ -459,6 +459,42 @@
       <c r="D3" t="inlineStr">
         <is>
           <t>19:59:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>15-03-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20:12:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>15-03-2024</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20:12:04</t>
         </is>
       </c>
     </row>

--- a/JKMapp/static/counter_info.xlsx
+++ b/JKMapp/static/counter_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <sheetData>
     <row r="1">
       <c r="E1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2">
@@ -495,6 +495,42 @@
       <c r="D5" t="inlineStr">
         <is>
           <t>20:12:04</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>16-03-2024</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>00:31:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>16-03-2024</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>01:57:58</t>
         </is>
       </c>
     </row>

--- a/JKMapp/static/counter_info.xlsx
+++ b/JKMapp/static/counter_info.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,7 +423,7 @@
   <sheetData>
     <row r="1">
       <c r="E1" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -441,6 +441,42 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>16:48:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20-03-2024</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11:27:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>20-03-2024</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11:27:17</t>
         </is>
       </c>
     </row>
